--- a/BackTest/2019-10-29 BackTest KNC.xlsx
+++ b/BackTest/2019-10-29 BackTest KNC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N110"/>
+  <dimension ref="A1:M110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-71898.56640000001</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,19 @@
         <v>-71898.56640000001</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="J3" t="n">
         <v>208</v>
       </c>
-      <c r="K3" t="n">
-        <v>208</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +521,21 @@
         <v>-71898.56640000001</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
         <v>208</v>
       </c>
-      <c r="K4" t="n">
-        <v>208</v>
-      </c>
-      <c r="L4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,26 +560,23 @@
         <v>-71898.56640000001</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="J5" t="n">
         <v>208</v>
       </c>
-      <c r="K5" t="n">
-        <v>208</v>
-      </c>
-      <c r="L5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -620,22 +601,15 @@
         <v>-71898.56640000001</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>208</v>
-      </c>
-      <c r="K6" t="n">
-        <v>208</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -660,544 +634,460 @@
         <v>-71897.56640000001</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>208</v>
-      </c>
-      <c r="K7" t="n">
-        <v>208</v>
-      </c>
-      <c r="L7" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>209</v>
+      </c>
+      <c r="C8" t="n">
+        <v>211</v>
+      </c>
+      <c r="D8" t="n">
+        <v>211</v>
+      </c>
+      <c r="E8" t="n">
+        <v>209</v>
+      </c>
+      <c r="F8" t="n">
+        <v>4903.498</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-66994.06840000002</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>210</v>
+      </c>
+      <c r="C9" t="n">
+        <v>210</v>
+      </c>
+      <c r="D9" t="n">
+        <v>210</v>
+      </c>
+      <c r="E9" t="n">
+        <v>210</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1055</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-68049.06840000002</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>210</v>
+      </c>
+      <c r="C10" t="n">
+        <v>210</v>
+      </c>
+      <c r="D10" t="n">
+        <v>210</v>
+      </c>
+      <c r="E10" t="n">
+        <v>210</v>
+      </c>
+      <c r="F10" t="n">
+        <v>600</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-68049.06840000002</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>208</v>
+      </c>
+      <c r="C11" t="n">
+        <v>210</v>
+      </c>
+      <c r="D11" t="n">
+        <v>210</v>
+      </c>
+      <c r="E11" t="n">
+        <v>208</v>
+      </c>
+      <c r="F11" t="n">
+        <v>15378</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-68049.06840000002</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>210</v>
+      </c>
+      <c r="C12" t="n">
+        <v>210</v>
+      </c>
+      <c r="D12" t="n">
+        <v>210</v>
+      </c>
+      <c r="E12" t="n">
+        <v>210</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1609.3766</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-68049.06840000002</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>210</v>
+      </c>
+      <c r="C13" t="n">
+        <v>210</v>
+      </c>
+      <c r="D13" t="n">
+        <v>210</v>
+      </c>
+      <c r="E13" t="n">
+        <v>210</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1368</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-68049.06840000002</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>210</v>
+      </c>
+      <c r="C14" t="n">
+        <v>210</v>
+      </c>
+      <c r="D14" t="n">
+        <v>210</v>
+      </c>
+      <c r="E14" t="n">
+        <v>210</v>
+      </c>
+      <c r="F14" t="n">
+        <v>322.9999</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-68049.06840000002</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>210</v>
+      </c>
+      <c r="C15" t="n">
+        <v>210</v>
+      </c>
+      <c r="D15" t="n">
+        <v>210</v>
+      </c>
+      <c r="E15" t="n">
+        <v>210</v>
+      </c>
+      <c r="F15" t="n">
+        <v>780.9999</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-68049.06840000002</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>208</v>
+      </c>
+      <c r="C16" t="n">
+        <v>210</v>
+      </c>
+      <c r="D16" t="n">
+        <v>210</v>
+      </c>
+      <c r="E16" t="n">
+        <v>208</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2191</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-68049.06840000002</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>208</v>
+      </c>
+      <c r="C17" t="n">
+        <v>208</v>
+      </c>
+      <c r="D17" t="n">
+        <v>208</v>
+      </c>
+      <c r="E17" t="n">
+        <v>208</v>
+      </c>
+      <c r="F17" t="n">
+        <v>300.7225</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-68349.79090000002</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>210</v>
+      </c>
+      <c r="C18" t="n">
+        <v>210</v>
+      </c>
+      <c r="D18" t="n">
+        <v>210</v>
+      </c>
+      <c r="E18" t="n">
+        <v>210</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-68348.79090000002</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I18" t="n">
+        <v>208</v>
+      </c>
+      <c r="J18" t="n">
+        <v>208</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>210</v>
+      </c>
+      <c r="C19" t="n">
+        <v>210</v>
+      </c>
+      <c r="D19" t="n">
+        <v>210</v>
+      </c>
+      <c r="E19" t="n">
+        <v>210</v>
+      </c>
+      <c r="F19" t="n">
+        <v>47</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-68348.79090000002</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>208</v>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>209</v>
-      </c>
-      <c r="C8" t="n">
-        <v>211</v>
-      </c>
-      <c r="D8" t="n">
-        <v>211</v>
-      </c>
-      <c r="E8" t="n">
-        <v>209</v>
-      </c>
-      <c r="F8" t="n">
-        <v>4903.498</v>
-      </c>
-      <c r="G8" t="n">
-        <v>-66994.06840000002</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>209</v>
-      </c>
-      <c r="K8" t="n">
-        <v>208</v>
-      </c>
-      <c r="L8" t="inlineStr">
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>210</v>
+      </c>
+      <c r="C20" t="n">
+        <v>210</v>
+      </c>
+      <c r="D20" t="n">
+        <v>210</v>
+      </c>
+      <c r="E20" t="n">
+        <v>210</v>
+      </c>
+      <c r="F20" t="n">
+        <v>4661</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-68348.79090000002</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>208</v>
+      </c>
+      <c r="K20" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>210</v>
-      </c>
-      <c r="C9" t="n">
-        <v>210</v>
-      </c>
-      <c r="D9" t="n">
-        <v>210</v>
-      </c>
-      <c r="E9" t="n">
-        <v>210</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1055</v>
-      </c>
-      <c r="G9" t="n">
-        <v>-68049.06840000002</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>210</v>
-      </c>
-      <c r="C10" t="n">
-        <v>210</v>
-      </c>
-      <c r="D10" t="n">
-        <v>210</v>
-      </c>
-      <c r="E10" t="n">
-        <v>210</v>
-      </c>
-      <c r="F10" t="n">
-        <v>600</v>
-      </c>
-      <c r="G10" t="n">
-        <v>-68049.06840000002</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>208</v>
-      </c>
-      <c r="C11" t="n">
-        <v>210</v>
-      </c>
-      <c r="D11" t="n">
-        <v>210</v>
-      </c>
-      <c r="E11" t="n">
-        <v>208</v>
-      </c>
-      <c r="F11" t="n">
-        <v>15378</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-68049.06840000002</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>210</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>210</v>
-      </c>
-      <c r="C12" t="n">
-        <v>210</v>
-      </c>
-      <c r="D12" t="n">
-        <v>210</v>
-      </c>
-      <c r="E12" t="n">
-        <v>210</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1609.3766</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-68049.06840000002</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>210</v>
-      </c>
-      <c r="C13" t="n">
-        <v>210</v>
-      </c>
-      <c r="D13" t="n">
-        <v>210</v>
-      </c>
-      <c r="E13" t="n">
-        <v>210</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1368</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-68049.06840000002</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>210</v>
-      </c>
-      <c r="C14" t="n">
-        <v>210</v>
-      </c>
-      <c r="D14" t="n">
-        <v>210</v>
-      </c>
-      <c r="E14" t="n">
-        <v>210</v>
-      </c>
-      <c r="F14" t="n">
-        <v>322.9999</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-68049.06840000002</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>210</v>
-      </c>
-      <c r="C15" t="n">
-        <v>210</v>
-      </c>
-      <c r="D15" t="n">
-        <v>210</v>
-      </c>
-      <c r="E15" t="n">
-        <v>210</v>
-      </c>
-      <c r="F15" t="n">
-        <v>780.9999</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-68049.06840000002</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>208</v>
-      </c>
-      <c r="C16" t="n">
-        <v>210</v>
-      </c>
-      <c r="D16" t="n">
-        <v>210</v>
-      </c>
-      <c r="E16" t="n">
-        <v>208</v>
-      </c>
-      <c r="F16" t="n">
-        <v>2191</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-68049.06840000002</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>208</v>
-      </c>
-      <c r="C17" t="n">
-        <v>208</v>
-      </c>
-      <c r="D17" t="n">
-        <v>208</v>
-      </c>
-      <c r="E17" t="n">
-        <v>208</v>
-      </c>
-      <c r="F17" t="n">
-        <v>300.7225</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-68349.79090000002</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>210</v>
-      </c>
-      <c r="C18" t="n">
-        <v>210</v>
-      </c>
-      <c r="D18" t="n">
-        <v>210</v>
-      </c>
-      <c r="E18" t="n">
-        <v>210</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1</v>
-      </c>
-      <c r="G18" t="n">
-        <v>-68348.79090000002</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>210</v>
-      </c>
-      <c r="C19" t="n">
-        <v>210</v>
-      </c>
-      <c r="D19" t="n">
-        <v>210</v>
-      </c>
-      <c r="E19" t="n">
-        <v>210</v>
-      </c>
-      <c r="F19" t="n">
-        <v>47</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-68348.79090000002</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>210</v>
-      </c>
-      <c r="C20" t="n">
-        <v>210</v>
-      </c>
-      <c r="D20" t="n">
-        <v>210</v>
-      </c>
-      <c r="E20" t="n">
-        <v>210</v>
-      </c>
-      <c r="F20" t="n">
-        <v>4661</v>
-      </c>
-      <c r="G20" t="n">
-        <v>-68348.79090000002</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1224,20 +1114,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1264,20 +1147,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1304,20 +1180,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1344,20 +1213,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1384,20 +1246,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1424,20 +1279,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1464,20 +1312,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1504,20 +1345,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1544,20 +1378,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1584,20 +1411,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1624,20 +1444,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1664,20 +1477,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1704,20 +1510,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1744,20 +1543,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1784,20 +1576,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1824,20 +1609,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1864,20 +1642,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1904,20 +1675,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1944,20 +1708,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1984,20 +1741,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2024,20 +1774,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2064,20 +1807,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2104,18 +1840,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="L43" t="n">
+        <v>1</v>
       </c>
       <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2142,16 +1873,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2178,16 +1906,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2214,16 +1939,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2250,16 +1972,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2286,16 +2005,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2322,16 +2038,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2358,16 +2071,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2394,16 +2104,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2430,16 +2137,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2466,16 +2170,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>1</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2502,16 +2203,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2538,16 +2236,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2574,16 +2269,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2610,16 +2302,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2646,16 +2335,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>1</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2682,16 +2368,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2718,16 +2401,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>1</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2754,16 +2434,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>1</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2790,16 +2467,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>1</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2826,16 +2500,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>1</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2862,16 +2533,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2898,16 +2566,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>1</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2934,16 +2599,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2970,16 +2632,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3006,16 +2665,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3042,16 +2698,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3076,18 +2729,15 @@
         <v>-56613.35570000001</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3112,18 +2762,15 @@
         <v>-56603.028685782</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3148,18 +2795,15 @@
         <v>-56613.355685782</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3184,18 +2828,15 @@
         <v>-55962.697085782</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3220,18 +2861,15 @@
         <v>-55962.697085782</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3256,18 +2894,15 @@
         <v>-55784.697085782</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3292,18 +2927,15 @@
         <v>-55784.697085782</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3330,16 +2962,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3366,16 +2995,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3402,16 +3028,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3436,18 +3059,15 @@
         <v>-55784.697085782</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3474,16 +3094,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3510,16 +3127,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3546,16 +3160,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3582,16 +3193,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3616,18 +3224,15 @@
         <v>-57940.172185782</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3652,18 +3257,15 @@
         <v>-56944.948385782</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3690,16 +3292,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3726,16 +3325,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>1</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3762,16 +3358,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3798,16 +3391,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3834,16 +3424,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3868,18 +3455,15 @@
         <v>-51468.633485782</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3904,18 +3488,15 @@
         <v>-51468.633485782</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3940,18 +3521,15 @@
         <v>-51468.633485782</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3976,18 +3554,15 @@
         <v>-51468.633485782</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4012,18 +3587,15 @@
         <v>-51468.633485782</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4048,18 +3620,15 @@
         <v>-52737.017485782</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4084,18 +3653,15 @@
         <v>-52846.261985782</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4122,16 +3688,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4158,16 +3721,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4194,16 +3754,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4230,16 +3787,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4266,16 +3820,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4302,16 +3853,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4336,18 +3884,15 @@
         <v>-61274.639585782</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4374,16 +3919,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4410,16 +3952,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4446,16 +3985,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4482,16 +4018,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4516,20 +4049,17 @@
         <v>-57439.03998578199</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest KNC.xlsx
+++ b/BackTest/2019-10-29 BackTest KNC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-71898.56640000001</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>-71898.56640000001</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>208</v>
-      </c>
-      <c r="J3" t="n">
-        <v>208</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -524,14 +520,8 @@
         <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="n">
-        <v>208</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -560,19 +550,11 @@
         <v>-71898.56640000001</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>208</v>
-      </c>
-      <c r="J5" t="n">
-        <v>208</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -997,14 +979,10 @@
         <v>-68348.79090000002</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" t="n">
-        <v>208</v>
-      </c>
-      <c r="J18" t="n">
-        <v>208</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
@@ -1037,14 +1015,8 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>208</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1076,14 +1048,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>208</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1805,10 +1771,14 @@
         <v>-51526.83560000002</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>212</v>
+      </c>
+      <c r="J42" t="n">
+        <v>212</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
@@ -1838,11 +1808,19 @@
         <v>-51526.83560000002</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>212</v>
+      </c>
+      <c r="J43" t="n">
+        <v>212</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1871,11 +1849,19 @@
         <v>-51526.83560000002</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>212</v>
+      </c>
+      <c r="J44" t="n">
+        <v>212</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1937,10 +1923,14 @@
         <v>-51876.83560000002</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>210</v>
+      </c>
+      <c r="J46" t="n">
+        <v>210</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
@@ -1970,11 +1960,19 @@
         <v>-51876.83560000002</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>211</v>
+      </c>
+      <c r="J47" t="n">
+        <v>210</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2003,11 +2001,19 @@
         <v>-44227.63740000002</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>211</v>
+      </c>
+      <c r="J48" t="n">
+        <v>210</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2036,10 +2042,14 @@
         <v>-44227.63740000002</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>212</v>
+      </c>
+      <c r="J49" t="n">
+        <v>212</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
@@ -2069,11 +2079,19 @@
         <v>-44237.18280000002</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>212</v>
+      </c>
+      <c r="J50" t="n">
+        <v>212</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2102,11 +2120,19 @@
         <v>-44237.18280000002</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>210</v>
+      </c>
+      <c r="J51" t="n">
+        <v>212</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2135,10 +2161,14 @@
         <v>-44034.85120000003</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>210</v>
+      </c>
+      <c r="J52" t="n">
+        <v>210</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
@@ -2171,8 +2201,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>210</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2204,8 +2240,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>210</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2267,10 +2309,14 @@
         <v>-45828.15870000002</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>210</v>
+      </c>
+      <c r="J56" t="n">
+        <v>210</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
@@ -2303,8 +2349,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>210</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2336,8 +2388,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>210</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2369,8 +2427,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>210</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2402,8 +2466,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>210</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2435,8 +2505,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>210</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2468,8 +2544,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>210</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2501,8 +2583,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>210</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2534,8 +2622,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>210</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2567,8 +2661,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>210</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2600,8 +2700,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>210</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2633,8 +2739,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>210</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2666,8 +2778,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>210</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2699,8 +2817,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>210</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2729,11 +2853,17 @@
         <v>-56613.35570000001</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>210</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2762,11 +2892,17 @@
         <v>-56603.028685782</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>210</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2795,11 +2931,17 @@
         <v>-56613.355685782</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>210</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2828,11 +2970,17 @@
         <v>-55962.697085782</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>210</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2861,11 +3009,17 @@
         <v>-55962.697085782</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>210</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2894,11 +3048,17 @@
         <v>-55784.697085782</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>210</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2927,11 +3087,17 @@
         <v>-55784.697085782</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>210</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2963,8 +3129,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>210</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2996,8 +3168,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>210</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3029,8 +3207,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>210</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3059,11 +3243,17 @@
         <v>-55784.697085782</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>210</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3095,8 +3285,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>210</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3128,8 +3324,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>210</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3161,8 +3363,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>210</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3194,8 +3402,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>210</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3224,11 +3438,17 @@
         <v>-57940.172185782</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>210</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3257,11 +3477,17 @@
         <v>-56944.948385782</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>210</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3293,8 +3519,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>210</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3326,8 +3558,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>210</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3359,8 +3597,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>210</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3392,8 +3636,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>210</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3425,8 +3675,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>210</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3455,13 +3711,19 @@
         <v>-51468.633485782</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>210</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L92" t="n">
-        <v>1</v>
+        <v>1.014047619047619</v>
       </c>
       <c r="M92" t="inlineStr"/>
     </row>
@@ -3488,7 +3750,7 @@
         <v>-51468.633485782</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3521,7 +3783,7 @@
         <v>-51468.633485782</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3554,7 +3816,7 @@
         <v>-51468.633485782</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3587,7 +3849,7 @@
         <v>-51468.633485782</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3620,7 +3882,7 @@
         <v>-52737.017485782</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3653,7 +3915,7 @@
         <v>-52846.261985782</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3884,7 +4146,7 @@
         <v>-61274.639585782</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4049,7 +4311,7 @@
         <v>-57439.03998578199</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4060,6 +4322,6 @@
       <c r="M110" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest KNC.xlsx
+++ b/BackTest/2019-10-29 BackTest KNC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1144,7 +1144,7 @@
         <v>-51034.97750000002</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-51034.97750000002</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-49324.47278301889</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-54214.71448301889</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-54214.71448301889</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-54183.03310000002</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-54183.03310000002</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-54183.03310000002</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-54183.03310000002</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-54183.03310000002</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-49811.52140000002</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-47011.52140000002</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-51756.83560000002</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-51756.83560000002</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1771,14 +1771,10 @@
         <v>-51526.83560000002</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>212</v>
-      </c>
-      <c r="J42" t="n">
-        <v>212</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
@@ -1808,19 +1804,11 @@
         <v>-51526.83560000002</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>212</v>
-      </c>
-      <c r="J43" t="n">
-        <v>212</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1849,19 +1837,11 @@
         <v>-51526.83560000002</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>212</v>
-      </c>
-      <c r="J44" t="n">
-        <v>212</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1923,14 +1903,10 @@
         <v>-51876.83560000002</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>210</v>
-      </c>
-      <c r="J46" t="n">
-        <v>210</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
@@ -1960,19 +1936,11 @@
         <v>-51876.83560000002</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>211</v>
-      </c>
-      <c r="J47" t="n">
-        <v>210</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2001,19 +1969,11 @@
         <v>-44227.63740000002</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>211</v>
-      </c>
-      <c r="J48" t="n">
-        <v>210</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2042,14 +2002,10 @@
         <v>-44227.63740000002</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>212</v>
-      </c>
-      <c r="J49" t="n">
-        <v>212</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
@@ -2079,19 +2035,11 @@
         <v>-44237.18280000002</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>212</v>
-      </c>
-      <c r="J50" t="n">
-        <v>212</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2120,19 +2068,11 @@
         <v>-44237.18280000002</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>210</v>
-      </c>
-      <c r="J51" t="n">
-        <v>212</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2161,14 +2101,10 @@
         <v>-44034.85120000003</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>210</v>
-      </c>
-      <c r="J52" t="n">
-        <v>210</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
@@ -2201,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>210</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2240,14 +2170,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>210</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2309,14 +2233,10 @@
         <v>-45828.15870000002</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>210</v>
-      </c>
-      <c r="J56" t="n">
-        <v>210</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
@@ -2349,1184 +2269,1008 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>210</v>
-      </c>
-      <c r="K57" t="inlineStr">
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>211</v>
+      </c>
+      <c r="C58" t="n">
+        <v>210</v>
+      </c>
+      <c r="D58" t="n">
+        <v>211</v>
+      </c>
+      <c r="E58" t="n">
+        <v>210</v>
+      </c>
+      <c r="F58" t="n">
+        <v>5112.5699</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-50940.72860000002</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>210</v>
+      </c>
+      <c r="C59" t="n">
+        <v>210</v>
+      </c>
+      <c r="D59" t="n">
+        <v>210</v>
+      </c>
+      <c r="E59" t="n">
+        <v>210</v>
+      </c>
+      <c r="F59" t="n">
+        <v>9319.6368</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-50940.72860000002</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>211</v>
+      </c>
+      <c r="C60" t="n">
+        <v>211</v>
+      </c>
+      <c r="D60" t="n">
+        <v>211</v>
+      </c>
+      <c r="E60" t="n">
+        <v>211</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1032.9403</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-49907.78830000002</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>211</v>
+      </c>
+      <c r="C61" t="n">
+        <v>211</v>
+      </c>
+      <c r="D61" t="n">
+        <v>211</v>
+      </c>
+      <c r="E61" t="n">
+        <v>211</v>
+      </c>
+      <c r="F61" t="n">
+        <v>2750.4162</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-49907.78830000002</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>211</v>
+      </c>
+      <c r="C62" t="n">
+        <v>211</v>
+      </c>
+      <c r="D62" t="n">
+        <v>211</v>
+      </c>
+      <c r="E62" t="n">
+        <v>211</v>
+      </c>
+      <c r="F62" t="n">
+        <v>645.3935</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-49907.78830000002</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>211</v>
+      </c>
+      <c r="C63" t="n">
+        <v>211</v>
+      </c>
+      <c r="D63" t="n">
+        <v>211</v>
+      </c>
+      <c r="E63" t="n">
+        <v>211</v>
+      </c>
+      <c r="F63" t="n">
+        <v>318.1663</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-49907.78830000002</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>211</v>
+      </c>
+      <c r="C64" t="n">
+        <v>211</v>
+      </c>
+      <c r="D64" t="n">
+        <v>211</v>
+      </c>
+      <c r="E64" t="n">
+        <v>211</v>
+      </c>
+      <c r="F64" t="n">
+        <v>102.5592</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-49907.78830000002</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>210</v>
+      </c>
+      <c r="C65" t="n">
+        <v>210</v>
+      </c>
+      <c r="D65" t="n">
+        <v>210</v>
+      </c>
+      <c r="E65" t="n">
+        <v>210</v>
+      </c>
+      <c r="F65" t="n">
+        <v>90.79989999999999</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-49998.58820000002</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>211</v>
+      </c>
+      <c r="C66" t="n">
+        <v>211</v>
+      </c>
+      <c r="D66" t="n">
+        <v>211</v>
+      </c>
+      <c r="E66" t="n">
+        <v>211</v>
+      </c>
+      <c r="F66" t="n">
+        <v>143.0929</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-49855.49530000002</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>210</v>
+      </c>
+      <c r="C67" t="n">
+        <v>210</v>
+      </c>
+      <c r="D67" t="n">
+        <v>210</v>
+      </c>
+      <c r="E67" t="n">
+        <v>210</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1795.4281</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-51650.92340000001</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>210</v>
+      </c>
+      <c r="C68" t="n">
+        <v>210</v>
+      </c>
+      <c r="D68" t="n">
+        <v>210</v>
+      </c>
+      <c r="E68" t="n">
+        <v>210</v>
+      </c>
+      <c r="F68" t="n">
+        <v>731.566</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-51650.92340000001</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>209</v>
+      </c>
+      <c r="C69" t="n">
+        <v>209</v>
+      </c>
+      <c r="D69" t="n">
+        <v>209</v>
+      </c>
+      <c r="E69" t="n">
+        <v>209</v>
+      </c>
+      <c r="F69" t="n">
+        <v>420.7977</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-52071.72110000002</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>209</v>
+      </c>
+      <c r="C70" t="n">
+        <v>208</v>
+      </c>
+      <c r="D70" t="n">
+        <v>209</v>
+      </c>
+      <c r="E70" t="n">
+        <v>208</v>
+      </c>
+      <c r="F70" t="n">
+        <v>4541.6346</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-56613.35570000001</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>211</v>
+      </c>
+      <c r="C71" t="n">
+        <v>211</v>
+      </c>
+      <c r="D71" t="n">
+        <v>211</v>
+      </c>
+      <c r="E71" t="n">
+        <v>211</v>
+      </c>
+      <c r="F71" t="n">
+        <v>10.32701421800948</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-56603.028685782</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>208</v>
+      </c>
+      <c r="C72" t="n">
+        <v>208</v>
+      </c>
+      <c r="D72" t="n">
+        <v>208</v>
+      </c>
+      <c r="E72" t="n">
+        <v>208</v>
+      </c>
+      <c r="F72" t="n">
+        <v>10.327</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-56613.355685782</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>209</v>
+      </c>
+      <c r="C73" t="n">
+        <v>209</v>
+      </c>
+      <c r="D73" t="n">
+        <v>209</v>
+      </c>
+      <c r="E73" t="n">
+        <v>209</v>
+      </c>
+      <c r="F73" t="n">
+        <v>650.6586</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-55962.697085782</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>209</v>
+      </c>
+      <c r="C74" t="n">
+        <v>209</v>
+      </c>
+      <c r="D74" t="n">
+        <v>209</v>
+      </c>
+      <c r="E74" t="n">
+        <v>209</v>
+      </c>
+      <c r="F74" t="n">
+        <v>798.6051</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-55962.697085782</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>211</v>
+      </c>
+      <c r="C75" t="n">
+        <v>211</v>
+      </c>
+      <c r="D75" t="n">
+        <v>211</v>
+      </c>
+      <c r="E75" t="n">
+        <v>211</v>
+      </c>
+      <c r="F75" t="n">
+        <v>178</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-55784.697085782</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>211</v>
+      </c>
+      <c r="C76" t="n">
+        <v>211</v>
+      </c>
+      <c r="D76" t="n">
+        <v>211</v>
+      </c>
+      <c r="E76" t="n">
+        <v>211</v>
+      </c>
+      <c r="F76" t="n">
+        <v>621.7087</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-55784.697085782</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>211</v>
+      </c>
+      <c r="C77" t="n">
+        <v>211</v>
+      </c>
+      <c r="D77" t="n">
+        <v>211</v>
+      </c>
+      <c r="E77" t="n">
+        <v>211</v>
+      </c>
+      <c r="F77" t="n">
+        <v>2218.6391</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-55784.697085782</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>211</v>
+      </c>
+      <c r="C78" t="n">
+        <v>211</v>
+      </c>
+      <c r="D78" t="n">
+        <v>211</v>
+      </c>
+      <c r="E78" t="n">
+        <v>211</v>
+      </c>
+      <c r="F78" t="n">
+        <v>759.7219</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-55784.697085782</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>211</v>
+      </c>
+      <c r="C79" t="n">
+        <v>211</v>
+      </c>
+      <c r="D79" t="n">
+        <v>211</v>
+      </c>
+      <c r="E79" t="n">
+        <v>211</v>
+      </c>
+      <c r="F79" t="n">
+        <v>65.1516</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-55784.697085782</v>
+      </c>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>210</v>
+      </c>
+      <c r="C80" t="n">
+        <v>211</v>
+      </c>
+      <c r="D80" t="n">
+        <v>211</v>
+      </c>
+      <c r="E80" t="n">
+        <v>210</v>
+      </c>
+      <c r="F80" t="n">
+        <v>891.7918</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-55784.697085782</v>
+      </c>
+      <c r="H80" t="n">
+        <v>2</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>210</v>
+      </c>
+      <c r="C81" t="n">
+        <v>210</v>
+      </c>
+      <c r="D81" t="n">
+        <v>210</v>
+      </c>
+      <c r="E81" t="n">
+        <v>210</v>
+      </c>
+      <c r="F81" t="n">
+        <v>626</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-56410.697085782</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>210</v>
+      </c>
+      <c r="C82" t="n">
+        <v>210</v>
+      </c>
+      <c r="D82" t="n">
+        <v>210</v>
+      </c>
+      <c r="E82" t="n">
+        <v>210</v>
+      </c>
+      <c r="F82" t="n">
+        <v>12478.8139</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-56410.697085782</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>211</v>
+      </c>
+      <c r="C83" t="n">
+        <v>211</v>
+      </c>
+      <c r="D83" t="n">
+        <v>211</v>
+      </c>
+      <c r="E83" t="n">
+        <v>211</v>
+      </c>
+      <c r="F83" t="n">
+        <v>432.1303</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-55978.566785782</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>211</v>
+      </c>
+      <c r="C84" t="n">
+        <v>211</v>
+      </c>
+      <c r="D84" t="n">
+        <v>211</v>
+      </c>
+      <c r="E84" t="n">
+        <v>211</v>
+      </c>
+      <c r="F84" t="n">
+        <v>496.7429</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-55978.566785782</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>209</v>
+      </c>
+      <c r="C85" t="n">
+        <v>209</v>
+      </c>
+      <c r="D85" t="n">
+        <v>209</v>
+      </c>
+      <c r="E85" t="n">
+        <v>209</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1961.6054</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-57940.172185782</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>212</v>
+      </c>
+      <c r="C86" t="n">
+        <v>212</v>
+      </c>
+      <c r="D86" t="n">
+        <v>212</v>
+      </c>
+      <c r="E86" t="n">
+        <v>212</v>
+      </c>
+      <c r="F86" t="n">
+        <v>995.2238</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-56944.948385782</v>
+      </c>
+      <c r="H86" t="n">
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>209</v>
+      </c>
+      <c r="J86" t="n">
+        <v>209</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>213</v>
+      </c>
+      <c r="C87" t="n">
+        <v>213</v>
+      </c>
+      <c r="D87" t="n">
+        <v>213</v>
+      </c>
+      <c r="E87" t="n">
+        <v>213</v>
+      </c>
+      <c r="F87" t="n">
+        <v>756.9607</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-56187.987685782</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>209</v>
+      </c>
+      <c r="K87" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>211</v>
-      </c>
-      <c r="C58" t="n">
-        <v>210</v>
-      </c>
-      <c r="D58" t="n">
-        <v>211</v>
-      </c>
-      <c r="E58" t="n">
-        <v>210</v>
-      </c>
-      <c r="F58" t="n">
-        <v>5112.5699</v>
-      </c>
-      <c r="G58" t="n">
-        <v>-50940.72860000002</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>210</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>210</v>
-      </c>
-      <c r="C59" t="n">
-        <v>210</v>
-      </c>
-      <c r="D59" t="n">
-        <v>210</v>
-      </c>
-      <c r="E59" t="n">
-        <v>210</v>
-      </c>
-      <c r="F59" t="n">
-        <v>9319.6368</v>
-      </c>
-      <c r="G59" t="n">
-        <v>-50940.72860000002</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>210</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>211</v>
-      </c>
-      <c r="C60" t="n">
-        <v>211</v>
-      </c>
-      <c r="D60" t="n">
-        <v>211</v>
-      </c>
-      <c r="E60" t="n">
-        <v>211</v>
-      </c>
-      <c r="F60" t="n">
-        <v>1032.9403</v>
-      </c>
-      <c r="G60" t="n">
-        <v>-49907.78830000002</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>210</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>211</v>
-      </c>
-      <c r="C61" t="n">
-        <v>211</v>
-      </c>
-      <c r="D61" t="n">
-        <v>211</v>
-      </c>
-      <c r="E61" t="n">
-        <v>211</v>
-      </c>
-      <c r="F61" t="n">
-        <v>2750.4162</v>
-      </c>
-      <c r="G61" t="n">
-        <v>-49907.78830000002</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>210</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>211</v>
-      </c>
-      <c r="C62" t="n">
-        <v>211</v>
-      </c>
-      <c r="D62" t="n">
-        <v>211</v>
-      </c>
-      <c r="E62" t="n">
-        <v>211</v>
-      </c>
-      <c r="F62" t="n">
-        <v>645.3935</v>
-      </c>
-      <c r="G62" t="n">
-        <v>-49907.78830000002</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>210</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>211</v>
-      </c>
-      <c r="C63" t="n">
-        <v>211</v>
-      </c>
-      <c r="D63" t="n">
-        <v>211</v>
-      </c>
-      <c r="E63" t="n">
-        <v>211</v>
-      </c>
-      <c r="F63" t="n">
-        <v>318.1663</v>
-      </c>
-      <c r="G63" t="n">
-        <v>-49907.78830000002</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>210</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>211</v>
-      </c>
-      <c r="C64" t="n">
-        <v>211</v>
-      </c>
-      <c r="D64" t="n">
-        <v>211</v>
-      </c>
-      <c r="E64" t="n">
-        <v>211</v>
-      </c>
-      <c r="F64" t="n">
-        <v>102.5592</v>
-      </c>
-      <c r="G64" t="n">
-        <v>-49907.78830000002</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>210</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>210</v>
-      </c>
-      <c r="C65" t="n">
-        <v>210</v>
-      </c>
-      <c r="D65" t="n">
-        <v>210</v>
-      </c>
-      <c r="E65" t="n">
-        <v>210</v>
-      </c>
-      <c r="F65" t="n">
-        <v>90.79989999999999</v>
-      </c>
-      <c r="G65" t="n">
-        <v>-49998.58820000002</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>210</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>211</v>
-      </c>
-      <c r="C66" t="n">
-        <v>211</v>
-      </c>
-      <c r="D66" t="n">
-        <v>211</v>
-      </c>
-      <c r="E66" t="n">
-        <v>211</v>
-      </c>
-      <c r="F66" t="n">
-        <v>143.0929</v>
-      </c>
-      <c r="G66" t="n">
-        <v>-49855.49530000002</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>210</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>210</v>
-      </c>
-      <c r="C67" t="n">
-        <v>210</v>
-      </c>
-      <c r="D67" t="n">
-        <v>210</v>
-      </c>
-      <c r="E67" t="n">
-        <v>210</v>
-      </c>
-      <c r="F67" t="n">
-        <v>1795.4281</v>
-      </c>
-      <c r="G67" t="n">
-        <v>-51650.92340000001</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>210</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>210</v>
-      </c>
-      <c r="C68" t="n">
-        <v>210</v>
-      </c>
-      <c r="D68" t="n">
-        <v>210</v>
-      </c>
-      <c r="E68" t="n">
-        <v>210</v>
-      </c>
-      <c r="F68" t="n">
-        <v>731.566</v>
-      </c>
-      <c r="G68" t="n">
-        <v>-51650.92340000001</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>210</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>209</v>
-      </c>
-      <c r="C69" t="n">
-        <v>209</v>
-      </c>
-      <c r="D69" t="n">
-        <v>209</v>
-      </c>
-      <c r="E69" t="n">
-        <v>209</v>
-      </c>
-      <c r="F69" t="n">
-        <v>420.7977</v>
-      </c>
-      <c r="G69" t="n">
-        <v>-52071.72110000002</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>210</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>209</v>
-      </c>
-      <c r="C70" t="n">
-        <v>208</v>
-      </c>
-      <c r="D70" t="n">
-        <v>209</v>
-      </c>
-      <c r="E70" t="n">
-        <v>208</v>
-      </c>
-      <c r="F70" t="n">
-        <v>4541.6346</v>
-      </c>
-      <c r="G70" t="n">
-        <v>-56613.35570000001</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>210</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>211</v>
-      </c>
-      <c r="C71" t="n">
-        <v>211</v>
-      </c>
-      <c r="D71" t="n">
-        <v>211</v>
-      </c>
-      <c r="E71" t="n">
-        <v>211</v>
-      </c>
-      <c r="F71" t="n">
-        <v>10.32701421800948</v>
-      </c>
-      <c r="G71" t="n">
-        <v>-56603.028685782</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>210</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>208</v>
-      </c>
-      <c r="C72" t="n">
-        <v>208</v>
-      </c>
-      <c r="D72" t="n">
-        <v>208</v>
-      </c>
-      <c r="E72" t="n">
-        <v>208</v>
-      </c>
-      <c r="F72" t="n">
-        <v>10.327</v>
-      </c>
-      <c r="G72" t="n">
-        <v>-56613.355685782</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>210</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>209</v>
-      </c>
-      <c r="C73" t="n">
-        <v>209</v>
-      </c>
-      <c r="D73" t="n">
-        <v>209</v>
-      </c>
-      <c r="E73" t="n">
-        <v>209</v>
-      </c>
-      <c r="F73" t="n">
-        <v>650.6586</v>
-      </c>
-      <c r="G73" t="n">
-        <v>-55962.697085782</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>210</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>209</v>
-      </c>
-      <c r="C74" t="n">
-        <v>209</v>
-      </c>
-      <c r="D74" t="n">
-        <v>209</v>
-      </c>
-      <c r="E74" t="n">
-        <v>209</v>
-      </c>
-      <c r="F74" t="n">
-        <v>798.6051</v>
-      </c>
-      <c r="G74" t="n">
-        <v>-55962.697085782</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>210</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>211</v>
-      </c>
-      <c r="C75" t="n">
-        <v>211</v>
-      </c>
-      <c r="D75" t="n">
-        <v>211</v>
-      </c>
-      <c r="E75" t="n">
-        <v>211</v>
-      </c>
-      <c r="F75" t="n">
-        <v>178</v>
-      </c>
-      <c r="G75" t="n">
-        <v>-55784.697085782</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>210</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>211</v>
-      </c>
-      <c r="C76" t="n">
-        <v>211</v>
-      </c>
-      <c r="D76" t="n">
-        <v>211</v>
-      </c>
-      <c r="E76" t="n">
-        <v>211</v>
-      </c>
-      <c r="F76" t="n">
-        <v>621.7087</v>
-      </c>
-      <c r="G76" t="n">
-        <v>-55784.697085782</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>210</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>211</v>
-      </c>
-      <c r="C77" t="n">
-        <v>211</v>
-      </c>
-      <c r="D77" t="n">
-        <v>211</v>
-      </c>
-      <c r="E77" t="n">
-        <v>211</v>
-      </c>
-      <c r="F77" t="n">
-        <v>2218.6391</v>
-      </c>
-      <c r="G77" t="n">
-        <v>-55784.697085782</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>210</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>211</v>
-      </c>
-      <c r="C78" t="n">
-        <v>211</v>
-      </c>
-      <c r="D78" t="n">
-        <v>211</v>
-      </c>
-      <c r="E78" t="n">
-        <v>211</v>
-      </c>
-      <c r="F78" t="n">
-        <v>759.7219</v>
-      </c>
-      <c r="G78" t="n">
-        <v>-55784.697085782</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>210</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>211</v>
-      </c>
-      <c r="C79" t="n">
-        <v>211</v>
-      </c>
-      <c r="D79" t="n">
-        <v>211</v>
-      </c>
-      <c r="E79" t="n">
-        <v>211</v>
-      </c>
-      <c r="F79" t="n">
-        <v>65.1516</v>
-      </c>
-      <c r="G79" t="n">
-        <v>-55784.697085782</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>210</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>210</v>
-      </c>
-      <c r="C80" t="n">
-        <v>211</v>
-      </c>
-      <c r="D80" t="n">
-        <v>211</v>
-      </c>
-      <c r="E80" t="n">
-        <v>210</v>
-      </c>
-      <c r="F80" t="n">
-        <v>891.7918</v>
-      </c>
-      <c r="G80" t="n">
-        <v>-55784.697085782</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>210</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>210</v>
-      </c>
-      <c r="C81" t="n">
-        <v>210</v>
-      </c>
-      <c r="D81" t="n">
-        <v>210</v>
-      </c>
-      <c r="E81" t="n">
-        <v>210</v>
-      </c>
-      <c r="F81" t="n">
-        <v>626</v>
-      </c>
-      <c r="G81" t="n">
-        <v>-56410.697085782</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>210</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>210</v>
-      </c>
-      <c r="C82" t="n">
-        <v>210</v>
-      </c>
-      <c r="D82" t="n">
-        <v>210</v>
-      </c>
-      <c r="E82" t="n">
-        <v>210</v>
-      </c>
-      <c r="F82" t="n">
-        <v>12478.8139</v>
-      </c>
-      <c r="G82" t="n">
-        <v>-56410.697085782</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>210</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>211</v>
-      </c>
-      <c r="C83" t="n">
-        <v>211</v>
-      </c>
-      <c r="D83" t="n">
-        <v>211</v>
-      </c>
-      <c r="E83" t="n">
-        <v>211</v>
-      </c>
-      <c r="F83" t="n">
-        <v>432.1303</v>
-      </c>
-      <c r="G83" t="n">
-        <v>-55978.566785782</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>210</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>211</v>
-      </c>
-      <c r="C84" t="n">
-        <v>211</v>
-      </c>
-      <c r="D84" t="n">
-        <v>211</v>
-      </c>
-      <c r="E84" t="n">
-        <v>211</v>
-      </c>
-      <c r="F84" t="n">
-        <v>496.7429</v>
-      </c>
-      <c r="G84" t="n">
-        <v>-55978.566785782</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>210</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>209</v>
-      </c>
-      <c r="C85" t="n">
-        <v>209</v>
-      </c>
-      <c r="D85" t="n">
-        <v>209</v>
-      </c>
-      <c r="E85" t="n">
-        <v>209</v>
-      </c>
-      <c r="F85" t="n">
-        <v>1961.6054</v>
-      </c>
-      <c r="G85" t="n">
-        <v>-57940.172185782</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>210</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>212</v>
-      </c>
-      <c r="C86" t="n">
-        <v>212</v>
-      </c>
-      <c r="D86" t="n">
-        <v>212</v>
-      </c>
-      <c r="E86" t="n">
-        <v>212</v>
-      </c>
-      <c r="F86" t="n">
-        <v>995.2238</v>
-      </c>
-      <c r="G86" t="n">
-        <v>-56944.948385782</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>210</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>213</v>
-      </c>
-      <c r="C87" t="n">
-        <v>213</v>
-      </c>
-      <c r="D87" t="n">
-        <v>213</v>
-      </c>
-      <c r="E87" t="n">
-        <v>213</v>
-      </c>
-      <c r="F87" t="n">
-        <v>756.9607</v>
-      </c>
-      <c r="G87" t="n">
-        <v>-56187.987685782</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>210</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3559,11 +3303,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L88" t="n">
@@ -3597,14 +3341,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>210</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3636,14 +3374,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>210</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3675,14 +3407,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>210</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3711,19 +3437,13 @@
         <v>-51468.633485782</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>210</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
-        <v>1.014047619047619</v>
+        <v>1</v>
       </c>
       <c r="M92" t="inlineStr"/>
     </row>
@@ -3750,7 +3470,7 @@
         <v>-51468.633485782</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3783,7 +3503,7 @@
         <v>-51468.633485782</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3816,7 +3536,7 @@
         <v>-51468.633485782</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3849,7 +3569,7 @@
         <v>-51468.633485782</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3882,7 +3602,7 @@
         <v>-52737.017485782</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -4322,6 +4042,6 @@
       <c r="M110" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest KNC.xlsx
+++ b/BackTest/2019-10-29 BackTest KNC.xlsx
@@ -1012,10 +1012,14 @@
         <v>-68348.79090000002</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>210</v>
+      </c>
+      <c r="J19" t="n">
+        <v>210</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
@@ -1048,8 +1052,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>210</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1081,8 +1091,14 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>210</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1114,8 +1130,14 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>210</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1144,11 +1166,19 @@
         <v>-51034.97750000002</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>211</v>
+      </c>
+      <c r="J23" t="n">
+        <v>210</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1177,11 +1207,17 @@
         <v>-51034.97750000002</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>210</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1210,11 +1246,19 @@
         <v>-49324.47278301889</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>211</v>
+      </c>
+      <c r="J25" t="n">
+        <v>210</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1243,11 +1287,19 @@
         <v>-54214.71448301889</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>212</v>
+      </c>
+      <c r="J26" t="n">
+        <v>210</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1276,11 +1328,19 @@
         <v>-54214.71448301889</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>211</v>
+      </c>
+      <c r="J27" t="n">
+        <v>210</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1309,11 +1369,19 @@
         <v>-54183.03310000002</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>211</v>
+      </c>
+      <c r="J28" t="n">
+        <v>210</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1342,11 +1410,19 @@
         <v>-54183.03310000002</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>212</v>
+      </c>
+      <c r="J29" t="n">
+        <v>210</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1375,11 +1451,17 @@
         <v>-54183.03310000002</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>210</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1490,17 @@
         <v>-54183.03310000002</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>210</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,11 +1529,17 @@
         <v>-54183.03310000002</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>210</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1474,11 +1568,17 @@
         <v>-49811.52140000002</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>210</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1507,11 +1607,17 @@
         <v>-47011.52140000002</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>210</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1540,11 +1646,17 @@
         <v>-51756.83560000002</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>210</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1573,11 +1685,17 @@
         <v>-51756.83560000002</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>210</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1609,8 +1727,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>210</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1642,8 +1766,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>210</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1675,8 +1805,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>210</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1708,8 +1844,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>210</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1738,11 +1880,19 @@
         <v>-51526.83560000002</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>211</v>
+      </c>
+      <c r="J41" t="n">
+        <v>210</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1771,11 +1921,19 @@
         <v>-51526.83560000002</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>212</v>
+      </c>
+      <c r="J42" t="n">
+        <v>210</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1804,11 +1962,19 @@
         <v>-51526.83560000002</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>212</v>
+      </c>
+      <c r="J43" t="n">
+        <v>210</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1837,11 +2003,19 @@
         <v>-51526.83560000002</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>212</v>
+      </c>
+      <c r="J44" t="n">
+        <v>210</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1870,11 +2044,19 @@
         <v>-53476.83560000002</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>212</v>
+      </c>
+      <c r="J45" t="n">
+        <v>210</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1903,11 +2085,19 @@
         <v>-51876.83560000002</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>210</v>
+      </c>
+      <c r="J46" t="n">
+        <v>210</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1936,11 +2126,19 @@
         <v>-51876.83560000002</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>211</v>
+      </c>
+      <c r="J47" t="n">
+        <v>210</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1969,11 +2167,19 @@
         <v>-44227.63740000002</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>211</v>
+      </c>
+      <c r="J48" t="n">
+        <v>210</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2002,11 +2208,19 @@
         <v>-44227.63740000002</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>212</v>
+      </c>
+      <c r="J49" t="n">
+        <v>210</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2038,8 +2252,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>210</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2068,11 +2288,19 @@
         <v>-44237.18280000002</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>210</v>
+      </c>
+      <c r="J51" t="n">
+        <v>210</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2101,11 +2329,19 @@
         <v>-44034.85120000003</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>210</v>
+      </c>
+      <c r="J52" t="n">
+        <v>210</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2134,11 +2370,19 @@
         <v>-45516.85120000003</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>212</v>
+      </c>
+      <c r="J53" t="n">
+        <v>210</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2170,8 +2414,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>210</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2200,11 +2450,19 @@
         <v>-49856.67240000002</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>211</v>
+      </c>
+      <c r="J55" t="n">
+        <v>210</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2233,11 +2491,19 @@
         <v>-45828.15870000002</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>210</v>
+      </c>
+      <c r="J56" t="n">
+        <v>210</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2266,11 +2532,19 @@
         <v>-45828.15870000002</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>212</v>
+      </c>
+      <c r="J57" t="n">
+        <v>210</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2299,13 +2573,19 @@
         <v>-50940.72860000002</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>210</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L58" t="n">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="M58" t="inlineStr"/>
     </row>
@@ -2332,10 +2612,14 @@
         <v>-50940.72860000002</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>210</v>
+      </c>
+      <c r="J59" t="n">
+        <v>210</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
@@ -2368,8 +2652,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>210</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2401,8 +2691,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>210</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2728,10 +3024,14 @@
         <v>-56603.028685782</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>208</v>
+      </c>
+      <c r="J71" t="n">
+        <v>208</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
@@ -2764,8 +3064,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>208</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2797,8 +3103,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>208</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2992,7 +3304,7 @@
         <v>-55784.697085782</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3337,7 @@
         <v>-55784.697085782</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3223,14 +3535,10 @@
         <v>-56944.948385782</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>209</v>
-      </c>
-      <c r="J86" t="n">
-        <v>209</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
@@ -3263,14 +3571,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>209</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3302,14 +3604,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>209</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3437,7 +3733,7 @@
         <v>-51468.633485782</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3470,7 +3766,7 @@
         <v>-51468.633485782</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3503,7 +3799,7 @@
         <v>-51468.633485782</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3536,7 +3832,7 @@
         <v>-51468.633485782</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3569,7 +3865,7 @@
         <v>-51468.633485782</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3602,7 +3898,7 @@
         <v>-52737.017485782</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3635,7 +3931,7 @@
         <v>-52846.261985782</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3866,7 +4162,7 @@
         <v>-61274.639585782</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3932,7 +4228,7 @@
         <v>-61178.68338578199</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3998,7 +4294,7 @@
         <v>-57439.03998578199</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4031,7 +4327,7 @@
         <v>-57439.03998578199</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>

--- a/BackTest/2019-10-29 BackTest KNC.xlsx
+++ b/BackTest/2019-10-29 BackTest KNC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M110"/>
+  <dimension ref="A1:L110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>2261.3919</v>
       </c>
       <c r="G2" t="n">
-        <v>-71898.56640000001</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,19 @@
         <v>4211.0137</v>
       </c>
       <c r="G3" t="n">
-        <v>-71898.56640000001</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>208</v>
+      </c>
+      <c r="I3" t="n">
+        <v>208</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +507,21 @@
         <v>1982</v>
       </c>
       <c r="G4" t="n">
-        <v>-71898.56640000001</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>208</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +543,23 @@
         <v>1548.4847</v>
       </c>
       <c r="G5" t="n">
-        <v>-71898.56640000001</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+        <v>208</v>
+      </c>
+      <c r="I5" t="n">
+        <v>208</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +581,19 @@
         <v>0.0001</v>
       </c>
       <c r="G6" t="n">
-        <v>-71898.56640000001</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>208</v>
+      </c>
+      <c r="I6" t="n">
+        <v>208</v>
+      </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +615,23 @@
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>-71897.56640000001</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>208</v>
+      </c>
+      <c r="I7" t="n">
+        <v>208</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +653,21 @@
         <v>4903.498</v>
       </c>
       <c r="G8" t="n">
-        <v>-66994.06840000002</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>208</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +689,15 @@
         <v>1055</v>
       </c>
       <c r="G9" t="n">
-        <v>-68049.06840000002</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +719,15 @@
         <v>600</v>
       </c>
       <c r="G10" t="n">
-        <v>-68049.06840000002</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +749,15 @@
         <v>15378</v>
       </c>
       <c r="G11" t="n">
-        <v>-68049.06840000002</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +779,15 @@
         <v>1609.3766</v>
       </c>
       <c r="G12" t="n">
-        <v>-68049.06840000002</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +809,15 @@
         <v>1368</v>
       </c>
       <c r="G13" t="n">
-        <v>-68049.06840000002</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +839,15 @@
         <v>322.9999</v>
       </c>
       <c r="G14" t="n">
-        <v>-68049.06840000002</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +869,15 @@
         <v>780.9999</v>
       </c>
       <c r="G15" t="n">
-        <v>-68049.06840000002</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +899,15 @@
         <v>2191</v>
       </c>
       <c r="G16" t="n">
-        <v>-68049.06840000002</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +929,15 @@
         <v>300.7225</v>
       </c>
       <c r="G17" t="n">
-        <v>-68349.79090000002</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +959,15 @@
         <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>-68348.79090000002</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,22 +989,15 @@
         <v>47</v>
       </c>
       <c r="G19" t="n">
-        <v>-68348.79090000002</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>210</v>
-      </c>
-      <c r="J19" t="n">
-        <v>210</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1046,24 +1019,15 @@
         <v>4661</v>
       </c>
       <c r="G20" t="n">
-        <v>-68348.79090000002</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>210</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1085,24 +1049,15 @@
         <v>17313.8134</v>
       </c>
       <c r="G21" t="n">
-        <v>-51034.97750000002</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>210</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1124,24 +1079,15 @@
         <v>1566.9779</v>
       </c>
       <c r="G22" t="n">
-        <v>-51034.97750000002</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>210</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1163,26 +1109,15 @@
         <v>885.6771</v>
       </c>
       <c r="G23" t="n">
-        <v>-51034.97750000002</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>211</v>
-      </c>
-      <c r="J23" t="n">
-        <v>210</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1204,24 +1139,15 @@
         <v>44.8152</v>
       </c>
       <c r="G24" t="n">
-        <v>-51034.97750000002</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>210</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1243,26 +1169,15 @@
         <v>1710.504716981132</v>
       </c>
       <c r="G25" t="n">
-        <v>-49324.47278301889</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>211</v>
-      </c>
-      <c r="J25" t="n">
-        <v>210</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1284,26 +1199,15 @@
         <v>4890.2417</v>
       </c>
       <c r="G26" t="n">
-        <v>-54214.71448301889</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>212</v>
-      </c>
-      <c r="J26" t="n">
-        <v>210</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1325,26 +1229,15 @@
         <v>3353.0245</v>
       </c>
       <c r="G27" t="n">
-        <v>-54214.71448301889</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>211</v>
-      </c>
-      <c r="J27" t="n">
-        <v>210</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1366,26 +1259,15 @@
         <v>31.68138301886793</v>
       </c>
       <c r="G28" t="n">
-        <v>-54183.03310000002</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>211</v>
-      </c>
-      <c r="J28" t="n">
-        <v>210</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1407,26 +1289,15 @@
         <v>393</v>
       </c>
       <c r="G29" t="n">
-        <v>-54183.03310000002</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>212</v>
-      </c>
-      <c r="J29" t="n">
-        <v>210</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1448,24 +1319,15 @@
         <v>17.8937</v>
       </c>
       <c r="G30" t="n">
-        <v>-54183.03310000002</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>210</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1487,24 +1349,15 @@
         <v>31.6814</v>
       </c>
       <c r="G31" t="n">
-        <v>-54183.03310000002</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>210</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1526,24 +1379,15 @@
         <v>190.7778</v>
       </c>
       <c r="G32" t="n">
-        <v>-54183.03310000002</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>210</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1565,24 +1409,15 @@
         <v>4371.5117</v>
       </c>
       <c r="G33" t="n">
-        <v>-49811.52140000002</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>210</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1604,24 +1439,15 @@
         <v>2800</v>
       </c>
       <c r="G34" t="n">
-        <v>-47011.52140000002</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>210</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1643,24 +1469,15 @@
         <v>4745.3142</v>
       </c>
       <c r="G35" t="n">
-        <v>-51756.83560000002</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>210</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,24 +1499,15 @@
         <v>4541.6345</v>
       </c>
       <c r="G36" t="n">
-        <v>-51756.83560000002</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>210</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1721,24 +1529,15 @@
         <v>3160.9198</v>
       </c>
       <c r="G37" t="n">
-        <v>-51756.83560000002</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>210</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1760,24 +1559,15 @@
         <v>45</v>
       </c>
       <c r="G38" t="n">
-        <v>-51756.83560000002</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>210</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1799,24 +1589,15 @@
         <v>70</v>
       </c>
       <c r="G39" t="n">
-        <v>-51826.83560000002</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>210</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1838,24 +1619,15 @@
         <v>1000</v>
       </c>
       <c r="G40" t="n">
-        <v>-51826.83560000002</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>210</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1877,26 +1649,15 @@
         <v>300</v>
       </c>
       <c r="G41" t="n">
-        <v>-51526.83560000002</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>211</v>
-      </c>
-      <c r="J41" t="n">
-        <v>210</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1918,26 +1679,15 @@
         <v>3000</v>
       </c>
       <c r="G42" t="n">
-        <v>-51526.83560000002</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>212</v>
-      </c>
-      <c r="J42" t="n">
-        <v>210</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1959,26 +1709,15 @@
         <v>237.0029</v>
       </c>
       <c r="G43" t="n">
-        <v>-51526.83560000002</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>212</v>
-      </c>
-      <c r="J43" t="n">
-        <v>210</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2000,26 +1739,15 @@
         <v>119.1146</v>
       </c>
       <c r="G44" t="n">
-        <v>-51526.83560000002</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>212</v>
-      </c>
-      <c r="J44" t="n">
-        <v>210</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2041,26 +1769,15 @@
         <v>1950</v>
       </c>
       <c r="G45" t="n">
-        <v>-53476.83560000002</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>212</v>
-      </c>
-      <c r="J45" t="n">
-        <v>210</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2082,26 +1799,15 @@
         <v>1600</v>
       </c>
       <c r="G46" t="n">
-        <v>-51876.83560000002</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>210</v>
-      </c>
-      <c r="J46" t="n">
-        <v>210</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2123,26 +1829,15 @@
         <v>596.1092</v>
       </c>
       <c r="G47" t="n">
-        <v>-51876.83560000002</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>211</v>
-      </c>
-      <c r="J47" t="n">
-        <v>210</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2164,26 +1859,15 @@
         <v>7649.1982</v>
       </c>
       <c r="G48" t="n">
-        <v>-44227.63740000002</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>211</v>
-      </c>
-      <c r="J48" t="n">
-        <v>210</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2205,26 +1889,15 @@
         <v>1165</v>
       </c>
       <c r="G49" t="n">
-        <v>-44227.63740000002</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>212</v>
-      </c>
-      <c r="J49" t="n">
-        <v>210</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2246,24 +1919,15 @@
         <v>9.545400000000001</v>
       </c>
       <c r="G50" t="n">
-        <v>-44237.18280000002</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>210</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2285,26 +1949,15 @@
         <v>5871.6696</v>
       </c>
       <c r="G51" t="n">
-        <v>-44237.18280000002</v>
-      </c>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>210</v>
-      </c>
-      <c r="J51" t="n">
-        <v>210</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2326,26 +1979,15 @@
         <v>202.3316</v>
       </c>
       <c r="G52" t="n">
-        <v>-44034.85120000003</v>
-      </c>
-      <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>210</v>
-      </c>
-      <c r="J52" t="n">
-        <v>210</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2367,26 +2009,15 @@
         <v>1482</v>
       </c>
       <c r="G53" t="n">
-        <v>-45516.85120000003</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>212</v>
-      </c>
-      <c r="J53" t="n">
-        <v>210</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2408,24 +2039,15 @@
         <v>223.5454</v>
       </c>
       <c r="G54" t="n">
-        <v>-45516.85120000003</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>210</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2447,26 +2069,15 @@
         <v>4339.8212</v>
       </c>
       <c r="G55" t="n">
-        <v>-49856.67240000002</v>
-      </c>
-      <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>211</v>
-      </c>
-      <c r="J55" t="n">
-        <v>210</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2488,26 +2099,15 @@
         <v>4028.5137</v>
       </c>
       <c r="G56" t="n">
-        <v>-45828.15870000002</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>210</v>
-      </c>
-      <c r="J56" t="n">
-        <v>210</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2529,26 +2129,15 @@
         <v>3971.4863</v>
       </c>
       <c r="G57" t="n">
-        <v>-45828.15870000002</v>
-      </c>
-      <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>212</v>
-      </c>
-      <c r="J57" t="n">
-        <v>210</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2570,24 +2159,15 @@
         <v>5112.5699</v>
       </c>
       <c r="G58" t="n">
-        <v>-50940.72860000002</v>
-      </c>
-      <c r="H58" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>210</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>0.995</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2609,22 +2189,15 @@
         <v>9319.6368</v>
       </c>
       <c r="G59" t="n">
-        <v>-50940.72860000002</v>
-      </c>
-      <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>210</v>
-      </c>
-      <c r="J59" t="n">
-        <v>210</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2646,24 +2219,15 @@
         <v>1032.9403</v>
       </c>
       <c r="G60" t="n">
-        <v>-49907.78830000002</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>210</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2685,24 +2249,15 @@
         <v>2750.4162</v>
       </c>
       <c r="G61" t="n">
-        <v>-49907.78830000002</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>210</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2724,18 +2279,15 @@
         <v>645.3935</v>
       </c>
       <c r="G62" t="n">
-        <v>-49907.78830000002</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2757,18 +2309,15 @@
         <v>318.1663</v>
       </c>
       <c r="G63" t="n">
-        <v>-49907.78830000002</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2790,18 +2339,15 @@
         <v>102.5592</v>
       </c>
       <c r="G64" t="n">
-        <v>-49907.78830000002</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2823,18 +2369,15 @@
         <v>90.79989999999999</v>
       </c>
       <c r="G65" t="n">
-        <v>-49998.58820000002</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2856,18 +2399,15 @@
         <v>143.0929</v>
       </c>
       <c r="G66" t="n">
-        <v>-49855.49530000002</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2889,18 +2429,15 @@
         <v>1795.4281</v>
       </c>
       <c r="G67" t="n">
-        <v>-51650.92340000001</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2922,18 +2459,15 @@
         <v>731.566</v>
       </c>
       <c r="G68" t="n">
-        <v>-51650.92340000001</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2955,18 +2489,15 @@
         <v>420.7977</v>
       </c>
       <c r="G69" t="n">
-        <v>-52071.72110000002</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2988,18 +2519,15 @@
         <v>4541.6346</v>
       </c>
       <c r="G70" t="n">
-        <v>-56613.35570000001</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3021,22 +2549,15 @@
         <v>10.32701421800948</v>
       </c>
       <c r="G71" t="n">
-        <v>-56603.028685782</v>
-      </c>
-      <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>208</v>
-      </c>
-      <c r="J71" t="n">
-        <v>208</v>
-      </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3058,24 +2579,15 @@
         <v>10.327</v>
       </c>
       <c r="G72" t="n">
-        <v>-56613.355685782</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>208</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3097,24 +2609,15 @@
         <v>650.6586</v>
       </c>
       <c r="G73" t="n">
-        <v>-55962.697085782</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>208</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3136,18 +2639,15 @@
         <v>798.6051</v>
       </c>
       <c r="G74" t="n">
-        <v>-55962.697085782</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3169,18 +2669,15 @@
         <v>178</v>
       </c>
       <c r="G75" t="n">
-        <v>-55784.697085782</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3202,18 +2699,15 @@
         <v>621.7087</v>
       </c>
       <c r="G76" t="n">
-        <v>-55784.697085782</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3235,18 +2729,15 @@
         <v>2218.6391</v>
       </c>
       <c r="G77" t="n">
-        <v>-55784.697085782</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3268,18 +2759,15 @@
         <v>759.7219</v>
       </c>
       <c r="G78" t="n">
-        <v>-55784.697085782</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3301,18 +2789,15 @@
         <v>65.1516</v>
       </c>
       <c r="G79" t="n">
-        <v>-55784.697085782</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3334,18 +2819,15 @@
         <v>891.7918</v>
       </c>
       <c r="G80" t="n">
-        <v>-55784.697085782</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3367,18 +2849,15 @@
         <v>626</v>
       </c>
       <c r="G81" t="n">
-        <v>-56410.697085782</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3400,18 +2879,15 @@
         <v>12478.8139</v>
       </c>
       <c r="G82" t="n">
-        <v>-56410.697085782</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3433,18 +2909,15 @@
         <v>432.1303</v>
       </c>
       <c r="G83" t="n">
-        <v>-55978.566785782</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3466,18 +2939,15 @@
         <v>496.7429</v>
       </c>
       <c r="G84" t="n">
-        <v>-55978.566785782</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3499,18 +2969,15 @@
         <v>1961.6054</v>
       </c>
       <c r="G85" t="n">
-        <v>-57940.172185782</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3532,18 +2999,15 @@
         <v>995.2238</v>
       </c>
       <c r="G86" t="n">
-        <v>-56944.948385782</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3565,18 +3029,15 @@
         <v>756.9607</v>
       </c>
       <c r="G87" t="n">
-        <v>-56187.987685782</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3598,18 +3059,15 @@
         <v>1924.9999</v>
       </c>
       <c r="G88" t="n">
-        <v>-56187.987685782</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3631,18 +3089,15 @@
         <v>2642.2032</v>
       </c>
       <c r="G89" t="n">
-        <v>-53545.784485782</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3664,18 +3119,15 @@
         <v>157</v>
       </c>
       <c r="G90" t="n">
-        <v>-53702.784485782</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3697,18 +3149,15 @@
         <v>2234.151</v>
       </c>
       <c r="G91" t="n">
-        <v>-51468.633485782</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3730,18 +3179,15 @@
         <v>868.9999</v>
       </c>
       <c r="G92" t="n">
-        <v>-51468.633485782</v>
-      </c>
-      <c r="H92" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3763,18 +3209,15 @@
         <v>2726.0478</v>
       </c>
       <c r="G93" t="n">
-        <v>-51468.633485782</v>
-      </c>
-      <c r="H93" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3796,18 +3239,15 @@
         <v>287</v>
       </c>
       <c r="G94" t="n">
-        <v>-51468.633485782</v>
-      </c>
-      <c r="H94" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3829,18 +3269,15 @@
         <v>160.8448</v>
       </c>
       <c r="G95" t="n">
-        <v>-51468.633485782</v>
-      </c>
-      <c r="H95" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3862,18 +3299,15 @@
         <v>2626.785</v>
       </c>
       <c r="G96" t="n">
-        <v>-51468.633485782</v>
-      </c>
-      <c r="H96" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3895,18 +3329,15 @@
         <v>1268.384</v>
       </c>
       <c r="G97" t="n">
-        <v>-52737.017485782</v>
-      </c>
-      <c r="H97" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3928,18 +3359,15 @@
         <v>109.2445</v>
       </c>
       <c r="G98" t="n">
-        <v>-52846.261985782</v>
-      </c>
-      <c r="H98" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3961,18 +3389,15 @@
         <v>10599.3094</v>
       </c>
       <c r="G99" t="n">
-        <v>-63445.571385782</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3994,18 +3419,15 @@
         <v>95.09610000000001</v>
       </c>
       <c r="G100" t="n">
-        <v>-63350.475285782</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4027,18 +3449,15 @@
         <v>1014</v>
       </c>
       <c r="G101" t="n">
-        <v>-62336.475285782</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4060,18 +3479,15 @@
         <v>94.8584</v>
       </c>
       <c r="G102" t="n">
-        <v>-62336.475285782</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4093,18 +3509,15 @@
         <v>899</v>
       </c>
       <c r="G103" t="n">
-        <v>-62336.475285782</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4126,18 +3539,15 @@
         <v>2000</v>
       </c>
       <c r="G104" t="n">
-        <v>-60336.475285782</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4159,18 +3569,15 @@
         <v>938.1643</v>
       </c>
       <c r="G105" t="n">
-        <v>-61274.639585782</v>
-      </c>
-      <c r="H105" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4192,18 +3599,15 @@
         <v>281</v>
       </c>
       <c r="G106" t="n">
-        <v>-61274.639585782</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4225,18 +3629,15 @@
         <v>95.9562</v>
       </c>
       <c r="G107" t="n">
-        <v>-61178.68338578199</v>
-      </c>
-      <c r="H107" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4258,18 +3659,15 @@
         <v>186</v>
       </c>
       <c r="G108" t="n">
-        <v>-61178.68338578199</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4291,18 +3689,15 @@
         <v>3739.6434</v>
       </c>
       <c r="G109" t="n">
-        <v>-57439.03998578199</v>
-      </c>
-      <c r="H109" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4324,18 +3719,15 @@
         <v>1353.8912</v>
       </c>
       <c r="G110" t="n">
-        <v>-57439.03998578199</v>
-      </c>
-      <c r="H110" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
